--- a/GATEWAY/A1#070105000000XX/ASL5/PHTRACK/1.0/report-checklist.xlsx
+++ b/GATEWAY/A1#070105000000XX/ASL5/PHTRACK/1.0/report-checklist.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\DA INVIARE\PHTRACK\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\FSE\DA INVIARE\PHTRACK\1.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE0D0CA-4685-40A8-AF45-1EA14700ED0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39CCA309-FDE4-4D2C-BAA9-7CFACDF9E915}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="230">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -959,6 +959,9 @@
   <si>
     <t>2.16.840.1.113883.2.9.2.120.4.4.b0f3ffcf25ce2aafc7dc901e2febc51f43837f4ca0fe3b6d1b02194e9047b6db.2c59322cbc^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
+  <si>
+    <t>//</t>
+  </si>
 </sst>
 </file>
 
@@ -967,7 +970,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1024,13 +1027,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1290,11 +1286,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1384,11 +1379,11 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="17" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1412,12 +1407,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -3875,10 +3872,10 @@
   <dimension ref="A1:T320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="J24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E25" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O32" sqref="O32"/>
+      <selection pane="bottomRight" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -4351,13 +4348,13 @@
       <c r="M14" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N14" s="34" t="s">
+      <c r="N14" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="O14" s="34" t="s">
+      <c r="O14" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P14" s="34" t="s">
+      <c r="P14" s="33" t="s">
         <v>222</v>
       </c>
       <c r="Q14" s="25"/>
@@ -4405,13 +4402,13 @@
       <c r="M15" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N15" s="34" t="s">
+      <c r="N15" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="O15" s="34" t="s">
+      <c r="O15" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P15" s="34" t="s">
+      <c r="P15" s="33" t="s">
         <v>222</v>
       </c>
       <c r="Q15" s="25"/>
@@ -4440,9 +4437,15 @@
       <c r="F16" s="23">
         <v>45089</v>
       </c>
-      <c r="G16" s="33"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="24"/>
+      <c r="G16" s="48" t="s">
+        <v>229</v>
+      </c>
+      <c r="H16" s="47" t="s">
+        <v>229</v>
+      </c>
+      <c r="I16" s="47" t="s">
+        <v>229</v>
+      </c>
       <c r="J16" s="25" t="s">
         <v>68</v>
       </c>
@@ -4453,13 +4456,13 @@
       <c r="M16" s="25" t="s">
         <v>68</v>
       </c>
-      <c r="N16" s="34" t="s">
+      <c r="N16" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="O16" s="34" t="s">
+      <c r="O16" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P16" s="34" t="s">
+      <c r="P16" s="33" t="s">
         <v>222</v>
       </c>
       <c r="Q16" s="25"/>
@@ -4509,13 +4512,13 @@
       <c r="M17" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N17" s="34" t="s">
+      <c r="N17" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O17" s="34" t="s">
+      <c r="O17" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P17" s="34" t="s">
+      <c r="P17" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q17" s="25"/>
@@ -4563,13 +4566,13 @@
       <c r="M18" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N18" s="34" t="s">
+      <c r="N18" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O18" s="34" t="s">
+      <c r="O18" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P18" s="34" t="s">
+      <c r="P18" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q18" s="25"/>
@@ -4617,13 +4620,13 @@
       <c r="M19" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N19" s="34" t="s">
+      <c r="N19" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O19" s="34" t="s">
+      <c r="O19" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P19" s="34" t="s">
+      <c r="P19" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q19" s="25"/>
@@ -4671,13 +4674,13 @@
       <c r="M20" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N20" s="34" t="s">
+      <c r="N20" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O20" s="34" t="s">
+      <c r="O20" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P20" s="34" t="s">
+      <c r="P20" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q20" s="25"/>
@@ -4725,13 +4728,13 @@
       <c r="M21" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N21" s="34" t="s">
+      <c r="N21" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O21" s="34" t="s">
+      <c r="O21" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P21" s="34" t="s">
+      <c r="P21" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q21" s="25"/>
@@ -4779,13 +4782,13 @@
       <c r="M22" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N22" s="34" t="s">
+      <c r="N22" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O22" s="34" t="s">
+      <c r="O22" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P22" s="34" t="s">
+      <c r="P22" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q22" s="25"/>
@@ -4833,13 +4836,13 @@
       <c r="M23" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N23" s="34" t="s">
+      <c r="N23" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O23" s="34" t="s">
+      <c r="O23" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P23" s="34" t="s">
+      <c r="P23" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q23" s="25"/>
@@ -4887,13 +4890,13 @@
       <c r="M24" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N24" s="34" t="s">
+      <c r="N24" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O24" s="34" t="s">
+      <c r="O24" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P24" s="34" t="s">
+      <c r="P24" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q24" s="25"/>
@@ -4941,13 +4944,13 @@
       <c r="M25" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N25" s="34" t="s">
+      <c r="N25" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O25" s="34" t="s">
+      <c r="O25" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P25" s="34" t="s">
+      <c r="P25" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q25" s="25"/>
@@ -4995,13 +4998,13 @@
       <c r="M26" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N26" s="34" t="s">
+      <c r="N26" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O26" s="34" t="s">
+      <c r="O26" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P26" s="34" t="s">
+      <c r="P26" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q26" s="25"/>
@@ -5049,13 +5052,13 @@
       <c r="M27" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N27" s="34" t="s">
+      <c r="N27" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O27" s="34" t="s">
+      <c r="O27" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P27" s="34" t="s">
+      <c r="P27" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q27" s="25"/>
@@ -5103,13 +5106,13 @@
       <c r="M28" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N28" s="34" t="s">
+      <c r="N28" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O28" s="34" t="s">
+      <c r="O28" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P28" s="34" t="s">
+      <c r="P28" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q28" s="25"/>
@@ -5157,13 +5160,13 @@
       <c r="M29" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N29" s="34" t="s">
+      <c r="N29" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O29" s="34" t="s">
+      <c r="O29" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P29" s="34" t="s">
+      <c r="P29" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q29" s="25"/>
@@ -5211,13 +5214,13 @@
       <c r="M30" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N30" s="34" t="s">
+      <c r="N30" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O30" s="34" t="s">
+      <c r="O30" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P30" s="34" t="s">
+      <c r="P30" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q30" s="25"/>
@@ -5265,13 +5268,13 @@
       <c r="M31" s="25" t="s">
         <v>155</v>
       </c>
-      <c r="N31" s="34" t="s">
+      <c r="N31" s="33" t="s">
         <v>224</v>
       </c>
-      <c r="O31" s="34" t="s">
+      <c r="O31" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="P31" s="34" t="s">
+      <c r="P31" s="33" t="s">
         <v>225</v>
       </c>
       <c r="Q31" s="25"/>
@@ -5303,10 +5306,10 @@
       <c r="G32" s="24" t="s">
         <v>226</v>
       </c>
-      <c r="H32" s="47" t="s">
+      <c r="H32" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="I32" s="47" t="s">
+      <c r="I32" s="34" t="s">
         <v>228</v>
       </c>
       <c r="J32" s="25" t="s">
@@ -5315,11 +5318,11 @@
       <c r="K32" s="25"/>
       <c r="L32" s="25"/>
       <c r="M32" s="25"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34" t="s">
+      <c r="N32" s="33"/>
+      <c r="O32" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="P32" s="34"/>
+      <c r="P32" s="33"/>
       <c r="Q32" s="25"/>
       <c r="R32" s="26"/>
       <c r="S32" s="27"/>
